--- a/T2F_MATLAB/Curto_Circuito/DadosT2F.xlsx
+++ b/T2F_MATLAB/Curto_Circuito/DadosT2F.xlsx
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>95.0761</v>
+        <v>125.7188</v>
       </c>
       <c r="C2">
-        <v>86.99639999999999</v>
+        <v>115.22</v>
       </c>
       <c r="D2">
-        <v>83.53570000000001</v>
+        <v>105.5106</v>
       </c>
       <c r="E2">
-        <v>67.2362</v>
+        <v>88.90689999999999</v>
       </c>
       <c r="F2">
-        <v>61.5222</v>
+        <v>81.483</v>
       </c>
       <c r="G2">
-        <v>59.074</v>
+        <v>74.61423000000001</v>
       </c>
       <c r="H2">
-        <v>0.4140611753787394</v>
+        <v>0.4140499781231829</v>
       </c>
       <c r="I2">
-        <v>0.4140651667203058</v>
+        <v>0.4140372838506191</v>
       </c>
       <c r="J2">
-        <v>0.4140857229915023</v>
+        <v>0.4140814694462435</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>74.4006</v>
+        <v>95.2116</v>
       </c>
       <c r="C3">
-        <v>0.0161816</v>
+        <v>0.0162186</v>
       </c>
       <c r="D3">
-        <v>74.4109</v>
+        <v>95.21899999999999</v>
       </c>
       <c r="E3">
-        <v>52.6142</v>
+        <v>67.33159999999999</v>
       </c>
       <c r="F3">
-        <v>0.0114329</v>
+        <v>0.011459</v>
       </c>
       <c r="G3">
-        <v>52.6215</v>
+        <v>67.3368</v>
       </c>
       <c r="H3">
-        <v>0.4140783286641249</v>
+        <v>0.4140700651699947</v>
       </c>
       <c r="I3">
-        <v>0.4153539346972336</v>
+        <v>0.4153591063792651</v>
       </c>
       <c r="J3">
-        <v>0.4140778959170682</v>
+        <v>0.4140707607133098</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -520,31 +520,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0176818</v>
+        <v>0.0176932</v>
       </c>
       <c r="C4">
-        <v>74.41200000000001</v>
+        <v>95.2204</v>
       </c>
       <c r="D4">
-        <v>74.3995</v>
+        <v>95.2102</v>
       </c>
       <c r="E4">
-        <v>0.0124948</v>
+        <v>0.012503</v>
       </c>
       <c r="F4">
-        <v>52.6223</v>
+        <v>67.3378</v>
       </c>
       <c r="G4">
-        <v>52.6134</v>
+        <v>67.3306</v>
       </c>
       <c r="H4">
-        <v>0.4151326952012037</v>
+        <v>0.415116372070703</v>
       </c>
       <c r="I4">
-        <v>0.4140773018283124</v>
+        <v>0.4140705517554775</v>
       </c>
       <c r="J4">
-        <v>0.414078922859956</v>
+        <v>0.4140702741398413</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -552,31 +552,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>72.3741</v>
+        <v>91.4089</v>
       </c>
       <c r="C5">
-        <v>72.363</v>
+        <v>91.4004</v>
       </c>
       <c r="D5">
-        <v>0.0169116</v>
+        <v>0.0169119</v>
       </c>
       <c r="E5">
-        <v>51.1809</v>
+        <v>64.64190000000001</v>
       </c>
       <c r="F5">
-        <v>51.173</v>
+        <v>64.63590000000001</v>
       </c>
       <c r="G5">
-        <v>0.0119497</v>
+        <v>0.0119499</v>
       </c>
       <c r="H5">
-        <v>0.4140841603019876</v>
+        <v>0.4140812692696222</v>
       </c>
       <c r="I5">
-        <v>0.414085552928302</v>
+        <v>0.4140810292732057</v>
       </c>
       <c r="J5">
-        <v>0.4152321815610432</v>
+        <v>0.415233600281174</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,22 +593,22 @@
         <v>0.011279</v>
       </c>
       <c r="E6">
-        <v>0.0079668</v>
+        <v>0.007966900000000001</v>
       </c>
       <c r="F6">
-        <v>0.0079668</v>
+        <v>0.007966900000000001</v>
       </c>
       <c r="G6">
-        <v>0.0079668</v>
+        <v>0.007966900000000001</v>
       </c>
       <c r="H6">
-        <v>0.4157503640106444</v>
+        <v>0.415732593606045</v>
       </c>
       <c r="I6">
-        <v>0.4157503640106444</v>
+        <v>0.415732593606045</v>
       </c>
       <c r="J6">
-        <v>0.4157503640106444</v>
+        <v>0.415732593606045</v>
       </c>
     </row>
   </sheetData>
@@ -661,31 +661,31 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>140.5483</v>
+        <v>269.9138</v>
       </c>
       <c r="C2">
-        <v>138.4786</v>
+        <v>267.0519</v>
       </c>
       <c r="D2">
-        <v>3.91196</v>
+        <v>3.864945</v>
       </c>
       <c r="E2">
-        <v>98.50344</v>
+        <v>189.4187</v>
       </c>
       <c r="F2">
-        <v>98.49315</v>
+        <v>189.4104</v>
       </c>
       <c r="G2">
-        <v>0.01195012</v>
+        <v>0.01195029</v>
       </c>
       <c r="H2">
-        <v>0.4268364637823818</v>
+        <v>0.4249585706163118</v>
       </c>
       <c r="I2">
-        <v>0.4059718873850618</v>
+        <v>0.4099114937722531</v>
       </c>
       <c r="J2">
-        <v>326.3573821852835</v>
+        <v>322.4185111825738</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -693,31 +693,31 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>129.9099</v>
+        <v>228.007</v>
       </c>
       <c r="C3">
-        <v>127.6569</v>
+        <v>224.9981</v>
       </c>
       <c r="D3">
-        <v>3.911945</v>
+        <v>3.86493</v>
       </c>
       <c r="E3">
-        <v>90.90795</v>
+        <v>159.8265</v>
       </c>
       <c r="F3">
-        <v>90.89801</v>
+        <v>159.8188</v>
       </c>
       <c r="G3">
-        <v>0.01195008</v>
+        <v>0.01195025</v>
       </c>
       <c r="H3">
-        <v>0.4290268342867702</v>
+        <v>0.4265907093003976</v>
       </c>
       <c r="I3">
-        <v>0.4043970819603201</v>
+        <v>0.4078324953009282</v>
       </c>
       <c r="J3">
-        <v>326.3572227131534</v>
+        <v>322.4183385284826</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -725,31 +725,31 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>120.4027</v>
+        <v>196.7283</v>
       </c>
       <c r="C4">
-        <v>117.9965</v>
+        <v>193.6173</v>
       </c>
       <c r="D4">
-        <v>3.91193</v>
+        <v>3.864915</v>
       </c>
       <c r="E4">
-        <v>84.12963000000001</v>
+        <v>137.7522</v>
       </c>
       <c r="F4">
-        <v>84.12000999999999</v>
+        <v>137.7449</v>
       </c>
       <c r="G4">
-        <v>0.01195004</v>
+        <v>0.0119502</v>
       </c>
       <c r="H4">
-        <v>0.4311568944258995</v>
+        <v>0.4281318193103268</v>
       </c>
       <c r="I4">
-        <v>0.4027161908325975</v>
+        <v>0.4056222771224198</v>
       </c>
       <c r="J4">
-        <v>326.3570632399557</v>
+        <v>322.4184365115228</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -757,31 +757,31 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>112.0019</v>
+        <v>172.8274</v>
       </c>
       <c r="C5">
-        <v>109.4681</v>
+        <v>169.6424</v>
       </c>
       <c r="D5">
-        <v>3.911915</v>
+        <v>3.864901</v>
       </c>
       <c r="E5">
-        <v>78.14811</v>
+        <v>120.8922</v>
       </c>
       <c r="F5">
-        <v>78.1388</v>
+        <v>120.8852</v>
       </c>
       <c r="G5">
-        <v>0.01194999</v>
+        <v>0.01195016</v>
       </c>
       <c r="H5">
-        <v>0.4332003678655825</v>
+        <v>0.429599262814309</v>
       </c>
       <c r="I5">
-        <v>0.4009442172134715</v>
+        <v>0.4033347341113719</v>
       </c>
       <c r="J5">
-        <v>326.3571777047512</v>
+        <v>322.4183475367694</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -789,31 +789,31 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>104.5668</v>
+        <v>154.0244</v>
       </c>
       <c r="C6">
-        <v>101.9255</v>
+        <v>150.7835</v>
       </c>
       <c r="D6">
-        <v>3.9119</v>
+        <v>3.864886</v>
       </c>
       <c r="E6">
-        <v>72.86056000000001</v>
+        <v>107.6329</v>
       </c>
       <c r="F6">
-        <v>72.85153</v>
+        <v>107.6262</v>
       </c>
       <c r="G6">
-        <v>0.01194995</v>
+        <v>0.01195011</v>
       </c>
       <c r="H6">
-        <v>0.4351632762635916</v>
+        <v>0.4310159811730429</v>
       </c>
       <c r="I6">
-        <v>0.3990852354096064</v>
+        <v>0.400992509258898</v>
       </c>
       <c r="J6">
-        <v>326.3570182302018</v>
+        <v>322.4184455205852</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -821,31 +821,31 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>97.967</v>
+        <v>138.8725</v>
       </c>
       <c r="C7">
-        <v>95.2343</v>
+        <v>135.5878</v>
       </c>
       <c r="D7">
-        <v>3.91189</v>
+        <v>3.864872</v>
       </c>
       <c r="E7">
-        <v>68.1722</v>
+        <v>96.95112</v>
       </c>
       <c r="F7">
-        <v>68.1634</v>
+        <v>96.94454</v>
       </c>
       <c r="G7">
-        <v>0.0119499</v>
+        <v>0.01195007</v>
       </c>
       <c r="H7">
-        <v>0.4370520534763436</v>
+        <v>0.4323970677182481</v>
       </c>
       <c r="I7">
-        <v>0.3971471493499446</v>
+        <v>0.3986120311675106</v>
       </c>
       <c r="J7">
-        <v>326.3575511092143</v>
+        <v>322.4183565451918</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -853,31 +853,31 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>92.0873</v>
+        <v>126.4166</v>
       </c>
       <c r="C8">
-        <v>89.27630000000001</v>
+        <v>123.0967</v>
       </c>
       <c r="D8">
-        <v>3.91187</v>
+        <v>3.864857</v>
       </c>
       <c r="E8">
-        <v>63.9995</v>
+        <v>88.1718</v>
       </c>
       <c r="F8">
-        <v>63.9909</v>
+        <v>88.16538</v>
       </c>
       <c r="G8">
-        <v>0.0119499</v>
+        <v>0.01195003</v>
       </c>
       <c r="H8">
-        <v>0.4388753037133103</v>
+        <v>0.4337531954661241</v>
       </c>
       <c r="I8">
-        <v>0.3951405590482397</v>
+        <v>0.3962022281308151</v>
       </c>
       <c r="J8">
-        <v>326.3558774550415</v>
+        <v>322.4181838874045</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -885,31 +885,31 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>86.8284</v>
+        <v>116.0039</v>
       </c>
       <c r="C9">
-        <v>83.9496</v>
+        <v>112.6552</v>
       </c>
       <c r="D9">
-        <v>3.91186</v>
+        <v>3.864842</v>
       </c>
       <c r="E9">
-        <v>60.2706</v>
+        <v>80.83389</v>
       </c>
       <c r="F9">
-        <v>60.2623</v>
+        <v>80.82761000000001</v>
       </c>
       <c r="G9">
-        <v>0.0119498</v>
+        <v>0.01194998</v>
       </c>
       <c r="H9">
-        <v>0.440642701416611</v>
+        <v>0.4350899109272114</v>
       </c>
       <c r="I9">
-        <v>0.3930699624806886</v>
+        <v>0.3937712620724525</v>
       </c>
       <c r="J9">
-        <v>326.357780046528</v>
+        <v>322.4182818716014</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -917,31 +917,31 @@
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>82.1054</v>
+        <v>107.1747</v>
       </c>
       <c r="C10">
-        <v>79.1675</v>
+        <v>103.8017</v>
       </c>
       <c r="D10">
-        <v>3.91184</v>
+        <v>3.864828</v>
       </c>
       <c r="E10">
-        <v>56.9244</v>
+        <v>74.61265</v>
       </c>
       <c r="F10">
-        <v>56.9162</v>
+        <v>74.60648999999999</v>
       </c>
       <c r="G10">
-        <v>0.0119498</v>
+        <v>0.01194994</v>
       </c>
       <c r="H10">
-        <v>0.4423586370695168</v>
+        <v>0.4364146026176526</v>
       </c>
       <c r="I10">
-        <v>0.3909484470150853</v>
+        <v>0.3913226583907111</v>
       </c>
       <c r="J10">
-        <v>326.3561063783495</v>
+        <v>322.4181928946924</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -949,31 +949,31 @@
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>77.84650000000001</v>
+        <v>99.59610000000001</v>
       </c>
       <c r="C11">
-        <v>74.8567</v>
+        <v>96.2025</v>
       </c>
       <c r="D11">
-        <v>3.91183</v>
+        <v>3.86481</v>
       </c>
       <c r="E11">
-        <v>53.909</v>
+        <v>69.2732</v>
       </c>
       <c r="F11">
-        <v>53.901</v>
+        <v>69.2672</v>
       </c>
       <c r="G11">
-        <v>0.0119497</v>
+        <v>0.0119499</v>
       </c>
       <c r="H11">
-        <v>0.4440353187779407</v>
+        <v>0.4377291651028103</v>
       </c>
       <c r="I11">
-        <v>0.3887812842062299</v>
+        <v>0.3888608172410606</v>
       </c>
       <c r="J11">
-        <v>326.3580089876733</v>
+        <v>322.417769186353</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -981,31 +981,31 @@
         <v>0.999</v>
       </c>
       <c r="B12">
-        <v>74.02760000000001</v>
+        <v>93.0834</v>
       </c>
       <c r="C12">
-        <v>70.9924</v>
+        <v>89.6722</v>
       </c>
       <c r="D12">
-        <v>3.91181</v>
+        <v>3.8648</v>
       </c>
       <c r="E12">
-        <v>51.2069</v>
+        <v>64.68519999999999</v>
       </c>
       <c r="F12">
-        <v>51.199</v>
+        <v>64.67919999999999</v>
       </c>
       <c r="G12">
-        <v>0.0119497</v>
+        <v>0.0119499</v>
       </c>
       <c r="H12">
-        <v>0.4456567376662132</v>
+        <v>0.439021599995053</v>
       </c>
       <c r="I12">
-        <v>0.3865973944803611</v>
+        <v>0.3864147979566849</v>
       </c>
       <c r="J12">
-        <v>326.3563353054888</v>
+        <v>322.4169323592666</v>
       </c>
     </row>
   </sheetData>
@@ -1058,31 +1058,31 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>196.8781</v>
+        <v>442.6161</v>
       </c>
       <c r="C2">
-        <v>129.7775</v>
+        <v>315.6075</v>
       </c>
       <c r="D2">
-        <v>114.9416</v>
+        <v>155.2925</v>
       </c>
       <c r="E2">
-        <v>139.2475</v>
+        <v>313.1492</v>
       </c>
       <c r="F2">
-        <v>91.78848000000001</v>
+        <v>223.3222</v>
       </c>
       <c r="G2">
-        <v>81.28563</v>
+        <v>109.82</v>
       </c>
       <c r="H2">
-        <v>0.413871703262177</v>
+        <v>0.4134351931922547</v>
       </c>
       <c r="I2">
-        <v>0.4138756846175031</v>
+        <v>0.4132383614347342</v>
       </c>
       <c r="J2">
-        <v>0.4140457544586909</v>
+        <v>0.4140639227827354</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1090,31 +1090,31 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>181.5502</v>
+        <v>372.1707</v>
       </c>
       <c r="C3">
-        <v>125.2864</v>
+        <v>271.3409</v>
       </c>
       <c r="D3">
-        <v>110.8316</v>
+        <v>148.6149</v>
       </c>
       <c r="E3">
-        <v>128.4039</v>
+        <v>263.2812</v>
       </c>
       <c r="F3">
-        <v>88.61026</v>
+        <v>191.9728</v>
       </c>
       <c r="G3">
-        <v>78.3788</v>
+        <v>105.0978</v>
       </c>
       <c r="H3">
-        <v>0.4138994220580527</v>
+        <v>0.413586309998587</v>
       </c>
       <c r="I3">
-        <v>0.4139039880934782</v>
+        <v>0.4134340906628438</v>
       </c>
       <c r="J3">
-        <v>0.414050738209822</v>
+        <v>0.4140629014118278</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1122,31 +1122,31 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>167.2577</v>
+        <v>313.7785</v>
       </c>
       <c r="C4">
-        <v>120.4328</v>
+        <v>234.7126</v>
       </c>
       <c r="D4">
-        <v>106.9631</v>
+        <v>142.3573</v>
       </c>
       <c r="E4">
-        <v>118.2931</v>
+        <v>221.9535</v>
       </c>
       <c r="F4">
-        <v>85.17583999999999</v>
+        <v>166.0394</v>
       </c>
       <c r="G4">
-        <v>75.64281</v>
+        <v>100.6724</v>
       </c>
       <c r="H4">
-        <v>0.4139260869822501</v>
+        <v>0.4137127821818535</v>
       </c>
       <c r="I4">
-        <v>0.4139314622550245</v>
+        <v>0.413595809187458</v>
       </c>
       <c r="J4">
-        <v>0.4140550833582201</v>
+        <v>0.4140648280958834</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1154,31 +1154,31 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>154.3048</v>
+        <v>268.1742</v>
       </c>
       <c r="C5">
-        <v>115.5261</v>
+        <v>206.1348</v>
       </c>
       <c r="D5">
-        <v>103.3514</v>
+        <v>136.5473</v>
       </c>
       <c r="E5">
-        <v>109.1302</v>
+        <v>189.6822</v>
       </c>
       <c r="F5">
-        <v>81.70421</v>
+        <v>145.8104</v>
       </c>
       <c r="G5">
-        <v>73.08843</v>
+        <v>96.56361</v>
       </c>
       <c r="H5">
-        <v>0.4139514085010382</v>
+        <v>0.4138079376978968</v>
       </c>
       <c r="I5">
-        <v>0.4139552906759639</v>
+        <v>0.4137180886960055</v>
       </c>
       <c r="J5">
-        <v>0.4140596534909834</v>
+        <v>0.4140658163049208</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1186,31 +1186,31 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>142.6869</v>
+        <v>232.6848</v>
       </c>
       <c r="C6">
-        <v>110.7299</v>
+        <v>183.8692</v>
       </c>
       <c r="D6">
-        <v>99.97211</v>
+        <v>131.1458</v>
       </c>
       <c r="E6">
-        <v>100.912</v>
+        <v>164.5722</v>
       </c>
       <c r="F6">
-        <v>78.31091000000001</v>
+        <v>130.0525</v>
       </c>
       <c r="G6">
-        <v>70.69844999999999</v>
+        <v>92.74362000000001</v>
       </c>
       <c r="H6">
-        <v>0.4139735611225622</v>
+        <v>0.4138767057862748</v>
       </c>
       <c r="I6">
-        <v>0.4139779501987653</v>
+        <v>0.4138075008169777</v>
       </c>
       <c r="J6">
-        <v>0.4140636746633061</v>
+        <v>0.414068159081994</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1218,31 +1218,31 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>132.321</v>
+        <v>204.7348</v>
       </c>
       <c r="C7">
-        <v>106.1358</v>
+        <v>166.2643</v>
       </c>
       <c r="D7">
-        <v>96.80383</v>
+        <v>126.1166</v>
       </c>
       <c r="E7">
-        <v>93.57966</v>
+        <v>144.7986</v>
       </c>
       <c r="F7">
-        <v>75.0608</v>
+        <v>117.5948</v>
       </c>
       <c r="G7">
-        <v>68.4577</v>
+        <v>89.18698000000001</v>
       </c>
       <c r="H7">
-        <v>0.4139931690283978</v>
+        <v>0.4139280352158102</v>
       </c>
       <c r="I7">
-        <v>0.4139977191823163</v>
+        <v>0.4138745930942523</v>
       </c>
       <c r="J7">
-        <v>0.4140678112177301</v>
+        <v>0.4140696321368881</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1250,31 +1250,31 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>123.0896</v>
+        <v>182.3584</v>
       </c>
       <c r="C8">
-        <v>101.789</v>
+        <v>152.0742</v>
       </c>
       <c r="D8">
-        <v>93.82765000000001</v>
+        <v>121.427</v>
       </c>
       <c r="E8">
-        <v>87.04994000000001</v>
+        <v>128.9695</v>
       </c>
       <c r="F8">
-        <v>71.98585</v>
+        <v>107.5546</v>
       </c>
       <c r="G8">
-        <v>66.35283</v>
+        <v>85.87048</v>
       </c>
       <c r="H8">
-        <v>0.4140113135057875</v>
+        <v>0.4139653173812411</v>
       </c>
       <c r="I8">
-        <v>0.4140140041410916</v>
+        <v>0.413925578264435</v>
       </c>
       <c r="J8">
-        <v>0.4140715625844446</v>
+        <v>0.4140715179419051</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1282,31 +1282,31 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>114.8662</v>
+        <v>164.142</v>
       </c>
       <c r="C9">
-        <v>97.70628000000001</v>
+        <v>140.4133</v>
       </c>
       <c r="D9">
-        <v>91.02683</v>
+        <v>117.0473</v>
       </c>
       <c r="E9">
-        <v>81.23339</v>
+        <v>116.0839</v>
       </c>
       <c r="F9">
-        <v>69.09778</v>
+        <v>99.30468999999999</v>
       </c>
       <c r="G9">
-        <v>64.37199</v>
+        <v>82.77307999999999</v>
       </c>
       <c r="H9">
-        <v>0.4140269167641533</v>
+        <v>0.4139945332643027</v>
       </c>
       <c r="I9">
-        <v>0.4140292206204021</v>
+        <v>0.4139644361207915</v>
       </c>
       <c r="J9">
-        <v>0.4140751280176364</v>
+        <v>0.4140744792872274</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1314,31 +1314,31 @@
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>107.5286</v>
+        <v>149.0789</v>
       </c>
       <c r="C10">
-        <v>93.88724999999999</v>
+        <v>130.6582</v>
       </c>
       <c r="D10">
-        <v>88.3865</v>
+        <v>112.9504</v>
       </c>
       <c r="E10">
-        <v>76.04352</v>
+        <v>105.4293</v>
       </c>
       <c r="F10">
-        <v>66.39635</v>
+        <v>92.40362</v>
       </c>
       <c r="G10">
-        <v>62.50465</v>
+        <v>79.87573999999999</v>
       </c>
       <c r="H10">
-        <v>0.4140402758841252</v>
+        <v>0.4140177351077927</v>
       </c>
       <c r="I10">
-        <v>0.4140423381706976</v>
+        <v>0.4139943867999976</v>
       </c>
       <c r="J10">
-        <v>0.4140787925378352</v>
+        <v>0.4140764141903413</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1346,31 +1346,31 @@
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>100.965</v>
+        <v>136.4464</v>
       </c>
       <c r="C11">
-        <v>90.32214999999999</v>
+        <v>122.3666</v>
       </c>
       <c r="D11">
-        <v>85.89339</v>
+        <v>109.1121</v>
       </c>
       <c r="E11">
-        <v>71.40119</v>
+        <v>96.49437</v>
       </c>
       <c r="F11">
-        <v>63.87463</v>
+        <v>86.53824</v>
       </c>
       <c r="G11">
-        <v>60.74146</v>
+        <v>77.16128999999999</v>
       </c>
       <c r="H11">
-        <v>0.4140520627177223</v>
+        <v>0.4140348291822622</v>
       </c>
       <c r="I11">
-        <v>0.4140535921695357</v>
+        <v>0.4140176643296651</v>
       </c>
       <c r="J11">
-        <v>0.4140817491051417</v>
+        <v>0.4140782249752435</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1378,31 +1378,31 @@
         <v>0.999</v>
       </c>
       <c r="B12">
-        <v>95.13200000000001</v>
+        <v>125.818</v>
       </c>
       <c r="C12">
-        <v>87.02849999999999</v>
+        <v>115.2866</v>
       </c>
       <c r="D12">
-        <v>83.5586</v>
+        <v>105.5455</v>
       </c>
       <c r="E12">
-        <v>67.2756</v>
+        <v>88.97707</v>
       </c>
       <c r="F12">
-        <v>61.545</v>
+        <v>81.53012</v>
       </c>
       <c r="G12">
-        <v>59.0902</v>
+        <v>74.63892</v>
       </c>
       <c r="H12">
-        <v>0.4140639399722932</v>
+        <v>0.414049709661152</v>
       </c>
       <c r="I12">
-        <v>0.4140628808189128</v>
+        <v>0.4140369227961398</v>
       </c>
       <c r="J12">
-        <v>0.4140855844116282</v>
+        <v>0.4140812862779902</v>
       </c>
     </row>
   </sheetData>
@@ -1455,31 +1455,31 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>112.9311</v>
+        <v>167.2707</v>
       </c>
       <c r="C2">
-        <v>0.01378008</v>
+        <v>0.01527412</v>
       </c>
       <c r="D2">
-        <v>112.9377</v>
+        <v>167.2703</v>
       </c>
       <c r="E2">
-        <v>79.86621</v>
+        <v>118.2964</v>
       </c>
       <c r="F2">
-        <v>0.009735796</v>
+        <v>0.01079277</v>
       </c>
       <c r="G2">
-        <v>79.87085999999999</v>
+        <v>118.2961</v>
       </c>
       <c r="H2">
-        <v>0.4140034940934346</v>
+        <v>0.4139965375108625</v>
       </c>
       <c r="I2">
-        <v>0.4154035273541065</v>
+        <v>0.4152177800509045</v>
       </c>
       <c r="J2">
-        <v>0.4140038056432598</v>
+        <v>0.4139967420734919</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1487,31 +1487,31 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>107.4248</v>
+        <v>155.7135</v>
       </c>
       <c r="C3">
-        <v>0.01408865</v>
+        <v>0.01516579</v>
       </c>
       <c r="D3">
-        <v>107.4319</v>
+        <v>155.7143</v>
       </c>
       <c r="E3">
-        <v>75.97145</v>
+        <v>110.1222</v>
       </c>
       <c r="F3">
-        <v>0.00995384</v>
+        <v>0.01071586</v>
       </c>
       <c r="G3">
-        <v>75.97648</v>
+        <v>110.1228</v>
       </c>
       <c r="H3">
-        <v>0.414015396573318</v>
+        <v>0.4140064401183413</v>
       </c>
       <c r="I3">
-        <v>0.4153984793808218</v>
+        <v>0.4152657836141942</v>
       </c>
       <c r="J3">
-        <v>0.4140152320823497</v>
+        <v>0.4140060005739049</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1519,31 +1519,31 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>102.3805</v>
+        <v>145.5215</v>
       </c>
       <c r="C4">
-        <v>0.01438271</v>
+        <v>0.01515556</v>
       </c>
       <c r="D4">
-        <v>102.3881</v>
+        <v>145.5234</v>
       </c>
       <c r="E4">
-        <v>72.40361</v>
+        <v>102.9136</v>
       </c>
       <c r="F4">
-        <v>0.01016164</v>
+        <v>0.01070837</v>
       </c>
       <c r="G4">
-        <v>72.40899</v>
+        <v>102.915</v>
       </c>
       <c r="H4">
-        <v>0.4140247979347991</v>
+        <v>0.4140162233174235</v>
       </c>
       <c r="I4">
-        <v>0.415392594108825</v>
+        <v>0.4153003678430984</v>
       </c>
       <c r="J4">
-        <v>0.4140246949998887</v>
+        <v>0.4140154496429092</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1551,31 +1551,31 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>97.7873</v>
+        <v>136.5574</v>
       </c>
       <c r="C5">
-        <v>0.0146594</v>
+        <v>0.01521222</v>
       </c>
       <c r="D5">
-        <v>97.7953</v>
+        <v>136.5603</v>
       </c>
       <c r="E5">
-        <v>69.15479999999999</v>
+        <v>96.57353999999999</v>
       </c>
       <c r="F5">
-        <v>0.0103571</v>
+        <v>0.01074822</v>
       </c>
       <c r="G5">
-        <v>69.1605</v>
+        <v>96.57559999999999</v>
       </c>
       <c r="H5">
-        <v>0.4140348898413416</v>
+        <v>0.4140250010510126</v>
       </c>
       <c r="I5">
-        <v>0.4153962016394551</v>
+        <v>0.4153245839776262</v>
       </c>
       <c r="J5">
-        <v>0.4140340223104229</v>
+        <v>0.4140248675648924</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1583,31 +1583,31 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>93.5874</v>
+        <v>128.6158</v>
       </c>
       <c r="C6">
-        <v>0.0149193</v>
+        <v>0.01531278</v>
       </c>
       <c r="D6">
-        <v>93.5958</v>
+        <v>128.6195</v>
       </c>
       <c r="E6">
-        <v>66.18429999999999</v>
+        <v>90.95671</v>
       </c>
       <c r="F6">
-        <v>0.0105408</v>
+        <v>0.01081915</v>
       </c>
       <c r="G6">
-        <v>66.19029999999999</v>
+        <v>90.95937000000001</v>
       </c>
       <c r="H6">
-        <v>0.4140423030839642</v>
+        <v>0.4140331153138675</v>
       </c>
       <c r="I6">
-        <v>0.4153859289617487</v>
+        <v>0.4153403918052713</v>
       </c>
       <c r="J6">
-        <v>0.4140410301811596</v>
+        <v>0.4140324410778128</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1615,31 +1615,31 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>89.7324</v>
+        <v>121.5338</v>
       </c>
       <c r="C7">
-        <v>0.0151634</v>
+        <v>0.01544131</v>
       </c>
       <c r="D7">
-        <v>89.7413</v>
+        <v>121.5384</v>
       </c>
       <c r="E7">
-        <v>63.4578</v>
+        <v>85.9479</v>
       </c>
       <c r="F7">
-        <v>0.0107133</v>
+        <v>0.01090988</v>
       </c>
       <c r="G7">
-        <v>63.464</v>
+        <v>85.95111</v>
       </c>
       <c r="H7">
-        <v>0.4140483912143188</v>
+        <v>0.4140403663149419</v>
       </c>
       <c r="I7">
-        <v>0.4153808817077838</v>
+        <v>0.415351039608135</v>
       </c>
       <c r="J7">
-        <v>0.414050485314509</v>
+        <v>0.4140410752112451</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1647,31 +1647,31 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>86.1818</v>
+        <v>115.181</v>
       </c>
       <c r="C8">
-        <v>0.0153927</v>
+        <v>0.01558681</v>
       </c>
       <c r="D8">
-        <v>86.191</v>
+        <v>115.1862</v>
       </c>
       <c r="E8">
-        <v>60.9465</v>
+        <v>81.45482</v>
       </c>
       <c r="F8">
-        <v>0.0108754</v>
+        <v>0.01101263</v>
       </c>
       <c r="G8">
-        <v>60.953</v>
+        <v>81.45851999999999</v>
       </c>
       <c r="H8">
-        <v>0.4140565906163602</v>
+        <v>0.4140476892589045</v>
       </c>
       <c r="I8">
-        <v>0.4153686301193519</v>
+        <v>0.4153576393649835</v>
       </c>
       <c r="J8">
-        <v>0.4140567322363132</v>
+        <v>0.4140472967100312</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1679,31 +1679,31 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>82.9008</v>
+        <v>109.4516</v>
       </c>
       <c r="C9">
-        <v>0.0156082</v>
+        <v>0.01574169</v>
       </c>
       <c r="D9">
-        <v>82.91030000000001</v>
+        <v>109.4574</v>
       </c>
       <c r="E9">
-        <v>58.626</v>
+        <v>77.40268</v>
       </c>
       <c r="F9">
-        <v>0.0110277</v>
+        <v>0.01112204</v>
       </c>
       <c r="G9">
-        <v>58.6327</v>
+        <v>77.40680999999999</v>
       </c>
       <c r="H9">
-        <v>0.4140620202640468</v>
+        <v>0.4140543970828916</v>
       </c>
       <c r="I9">
-        <v>0.4153631310246017</v>
+        <v>0.4153599519512607</v>
       </c>
       <c r="J9">
-        <v>0.4140624600265723</v>
+        <v>0.4140538797555411</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1711,31 +1711,31 @@
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>79.8599</v>
+        <v>104.2591</v>
       </c>
       <c r="C10">
-        <v>0.0158109</v>
+        <v>0.01590078</v>
       </c>
       <c r="D10">
-        <v>79.86969999999999</v>
+        <v>104.2655</v>
       </c>
       <c r="E10">
-        <v>56.4753</v>
+        <v>73.73032000000001</v>
       </c>
       <c r="F10">
-        <v>0.011171</v>
+        <v>0.01123444</v>
       </c>
       <c r="G10">
-        <v>56.4822</v>
+        <v>73.73484999999999</v>
       </c>
       <c r="H10">
-        <v>0.4140677428893693</v>
+        <v>0.414060050193733</v>
       </c>
       <c r="I10">
-        <v>0.4153522513651418</v>
+        <v>0.4153602671784263</v>
       </c>
       <c r="J10">
-        <v>0.4140685029974044</v>
+        <v>0.4140599729978431</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1743,31 +1743,31 @@
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>77.0339</v>
+        <v>99.53230000000001</v>
       </c>
       <c r="C11">
-        <v>0.0160017</v>
+        <v>0.0160605</v>
       </c>
       <c r="D11">
-        <v>77.04389999999999</v>
+        <v>99.53919999999999</v>
       </c>
       <c r="E11">
-        <v>54.4766</v>
+        <v>70.3873</v>
       </c>
       <c r="F11">
-        <v>0.0113058</v>
+        <v>0.0113473</v>
       </c>
       <c r="G11">
-        <v>54.4837</v>
+        <v>70.3922</v>
       </c>
       <c r="H11">
-        <v>0.4140731984007814</v>
+        <v>0.414066173869434</v>
       </c>
       <c r="I11">
-        <v>0.4153531815528314</v>
+        <v>0.4153587196954341</v>
       </c>
       <c r="J11">
-        <v>0.4140724657099278</v>
+        <v>0.414065762968056</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1775,31 +1775,31 @@
         <v>0.999</v>
       </c>
       <c r="B12">
-        <v>74.426</v>
+        <v>95.253</v>
       </c>
       <c r="C12">
-        <v>0.0161798</v>
+        <v>0.016217</v>
       </c>
       <c r="D12">
-        <v>74.4363</v>
+        <v>95.2604</v>
       </c>
       <c r="E12">
-        <v>52.6322</v>
+        <v>67.3608</v>
       </c>
       <c r="F12">
-        <v>0.0114317</v>
+        <v>0.0114579</v>
       </c>
       <c r="G12">
-        <v>52.6395</v>
+        <v>67.366</v>
       </c>
       <c r="H12">
-        <v>0.4140773138876963</v>
+        <v>0.4140716856094346</v>
       </c>
       <c r="I12">
-        <v>0.4153450492927563</v>
+        <v>0.4153553443475679</v>
       </c>
       <c r="J12">
-        <v>0.414076881429345</v>
+        <v>0.4140723807261824</v>
       </c>
     </row>
   </sheetData>
@@ -1852,31 +1852,31 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>0.0209003</v>
+        <v>0.02141568</v>
       </c>
       <c r="C2">
-        <v>112.9429</v>
+        <v>167.278</v>
       </c>
       <c r="D2">
-        <v>112.9259</v>
+        <v>167.263</v>
       </c>
       <c r="E2">
-        <v>0.01476966</v>
+        <v>0.01513396</v>
       </c>
       <c r="F2">
-        <v>79.87456</v>
+        <v>118.3016</v>
       </c>
       <c r="G2">
-        <v>79.86252</v>
+        <v>118.2909</v>
       </c>
       <c r="H2">
-        <v>0.4150833533067111</v>
+        <v>0.4150744418513065</v>
       </c>
       <c r="I2">
-        <v>0.4140034073427132</v>
+        <v>0.4139960913461864</v>
       </c>
       <c r="J2">
-        <v>0.4140037153848888</v>
+        <v>0.4139971882875184</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1884,31 +1884,31 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>0.02041123</v>
+        <v>0.02079639</v>
       </c>
       <c r="C3">
-        <v>107.4365</v>
+        <v>155.721</v>
       </c>
       <c r="D3">
-        <v>107.4201</v>
+        <v>155.7068</v>
       </c>
       <c r="E3">
-        <v>0.01442397</v>
+        <v>0.01469627</v>
       </c>
       <c r="F3">
-        <v>75.97976</v>
+        <v>110.1275</v>
       </c>
       <c r="G3">
-        <v>75.96817</v>
+        <v>110.1174</v>
       </c>
       <c r="H3">
-        <v>0.4150909908991768</v>
+        <v>0.4150794725464353</v>
       </c>
       <c r="I3">
-        <v>0.4140147323445085</v>
+        <v>0.4140064924746317</v>
       </c>
       <c r="J3">
-        <v>0.4140145800537252</v>
+        <v>0.4140072322811834</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1916,31 +1916,31 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>0.0199707</v>
+        <v>0.02025613</v>
       </c>
       <c r="C4">
-        <v>102.3922</v>
+        <v>145.5292</v>
       </c>
       <c r="D4">
-        <v>102.3764</v>
+        <v>145.5156</v>
       </c>
       <c r="E4">
-        <v>0.01411259</v>
+        <v>0.01431443</v>
       </c>
       <c r="F4">
-        <v>72.41189</v>
+        <v>102.9191</v>
       </c>
       <c r="G4">
-        <v>72.40071</v>
+        <v>102.9095</v>
       </c>
       <c r="H4">
-        <v>0.4150981499497967</v>
+        <v>0.4150846383684157</v>
       </c>
       <c r="I4">
-        <v>0.4140246857249549</v>
+        <v>0.4140154742900006</v>
       </c>
       <c r="J4">
-        <v>0.4140248072152883</v>
+        <v>0.414015226971271</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1948,31 +1948,31 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>0.0195762</v>
+        <v>0.01978601</v>
       </c>
       <c r="C5">
-        <v>97.7989</v>
+        <v>136.5653</v>
       </c>
       <c r="D5">
-        <v>97.7837</v>
+        <v>136.5523</v>
       </c>
       <c r="E5">
-        <v>0.0138338</v>
+        <v>0.01398217</v>
       </c>
       <c r="F5">
-        <v>69.1631</v>
+        <v>96.57916</v>
       </c>
       <c r="G5">
-        <v>69.1523</v>
+        <v>96.56998</v>
       </c>
       <c r="H5">
-        <v>0.4150992496638666</v>
+        <v>0.4150886450386456</v>
       </c>
       <c r="I5">
-        <v>0.4140329163961708</v>
+        <v>0.4140245162621005</v>
       </c>
       <c r="J5">
-        <v>0.4140339511484072</v>
+        <v>0.4140243168736288</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1980,31 +1980,31 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>0.0192214</v>
+        <v>0.01937385</v>
       </c>
       <c r="C6">
-        <v>93.599</v>
+        <v>128.6239</v>
       </c>
       <c r="D6">
-        <v>93.5842</v>
+        <v>128.6114</v>
       </c>
       <c r="E6">
-        <v>0.013583</v>
+        <v>0.01369087</v>
       </c>
       <c r="F6">
-        <v>66.1925</v>
+        <v>90.96244</v>
       </c>
       <c r="G6">
-        <v>66.18210000000001</v>
+        <v>90.95363999999999</v>
       </c>
       <c r="H6">
-        <v>0.4151071191931091</v>
+        <v>0.4150926858556104</v>
       </c>
       <c r="I6">
-        <v>0.4140423764021605</v>
+        <v>0.4140330888221555</v>
       </c>
       <c r="J6">
-        <v>0.4140409566937282</v>
+        <v>0.4140324675296119</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2012,31 +2012,31 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>0.018901</v>
+        <v>0.01901003</v>
       </c>
       <c r="C7">
-        <v>89.744</v>
+        <v>121.5421</v>
       </c>
       <c r="D7">
-        <v>89.72969999999999</v>
+        <v>121.5301</v>
       </c>
       <c r="E7">
-        <v>0.0133565</v>
+        <v>0.01343373</v>
       </c>
       <c r="F7">
-        <v>63.466</v>
+        <v>85.95375</v>
       </c>
       <c r="G7">
-        <v>63.4558</v>
+        <v>85.94526999999999</v>
       </c>
       <c r="H7">
-        <v>0.415116235540748</v>
+        <v>0.4150969239369856</v>
       </c>
       <c r="I7">
-        <v>0.4140484668956607</v>
+        <v>0.4140406904876169</v>
       </c>
       <c r="J7">
-        <v>0.4140504098916094</v>
+        <v>0.4140405865267514</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2044,31 +2044,31 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>0.0186106</v>
+        <v>0.01868688</v>
       </c>
       <c r="C8">
-        <v>86.19329999999999</v>
+        <v>115.1894</v>
       </c>
       <c r="D8">
-        <v>86.1794</v>
+        <v>115.1778</v>
       </c>
       <c r="E8">
-        <v>0.0131512</v>
+        <v>0.01320533</v>
       </c>
       <c r="F8">
-        <v>60.9547</v>
+        <v>81.46075999999999</v>
       </c>
       <c r="G8">
-        <v>60.9448</v>
+        <v>81.45258</v>
       </c>
       <c r="H8">
-        <v>0.4151256159133768</v>
+        <v>0.415101326509826</v>
       </c>
       <c r="I8">
-        <v>0.4140550277501159</v>
+        <v>0.4140476960931866</v>
       </c>
       <c r="J8">
-        <v>0.4140566545464092</v>
+        <v>0.4140472898464359</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2076,31 +2076,31 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>0.0183463</v>
+        <v>0.01839821</v>
       </c>
       <c r="C9">
-        <v>82.9123</v>
+        <v>109.4601</v>
       </c>
       <c r="D9">
-        <v>82.89879999999999</v>
+        <v>109.4489</v>
       </c>
       <c r="E9">
-        <v>0.0129645</v>
+        <v>0.0130013</v>
       </c>
       <c r="F9">
-        <v>58.6341</v>
+        <v>77.40871</v>
       </c>
       <c r="G9">
-        <v>58.6245</v>
+        <v>77.4008</v>
       </c>
       <c r="H9">
-        <v>0.4151182074125496</v>
+        <v>0.4151054125356696</v>
       </c>
       <c r="I9">
-        <v>0.4140628064556292</v>
+        <v>0.4140540515401949</v>
       </c>
       <c r="J9">
-        <v>0.4140640858344207</v>
+        <v>0.4140538599084246</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2108,31 +2108,31 @@
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>0.0181052</v>
+        <v>0.01813901</v>
       </c>
       <c r="C10">
-        <v>79.87139999999999</v>
+        <v>104.2678</v>
       </c>
       <c r="D10">
-        <v>79.8583</v>
+        <v>104.2569</v>
       </c>
       <c r="E10">
-        <v>0.0127941</v>
+        <v>0.0128181</v>
       </c>
       <c r="F10">
-        <v>56.4834</v>
+        <v>73.73642</v>
       </c>
       <c r="G10">
-        <v>56.4741</v>
+        <v>73.72875999999999</v>
       </c>
       <c r="H10">
-        <v>0.4151210323508492</v>
+        <v>0.415109103533285</v>
       </c>
       <c r="I10">
-        <v>0.4140685581958591</v>
+        <v>0.4140610569376707</v>
       </c>
       <c r="J10">
-        <v>0.4140694583888898</v>
+        <v>0.4140601306735663</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2140,31 +2140,31 @@
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>0.0178844</v>
+        <v>0.0179051</v>
       </c>
       <c r="C11">
-        <v>77.0453</v>
+        <v>99.541</v>
       </c>
       <c r="D11">
-        <v>77.0325</v>
+        <v>99.5305</v>
       </c>
       <c r="E11">
-        <v>0.012638</v>
+        <v>0.0126528</v>
       </c>
       <c r="F11">
-        <v>54.4847</v>
+        <v>70.3935</v>
       </c>
       <c r="G11">
-        <v>54.4756</v>
+        <v>70.386</v>
       </c>
       <c r="H11">
-        <v>0.4151289761038141</v>
+        <v>0.4151096990389478</v>
       </c>
       <c r="I11">
-        <v>0.4140722074270392</v>
+        <v>0.4140652190898306</v>
       </c>
       <c r="J11">
-        <v>0.4140734567402654</v>
+        <v>0.4140667178132016</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2172,31 +2172,31 @@
         <v>0.999</v>
       </c>
       <c r="B12">
-        <v>0.0176837</v>
+        <v>0.0176952</v>
       </c>
       <c r="C12">
-        <v>74.4375</v>
+        <v>95.26179999999999</v>
       </c>
       <c r="D12">
-        <v>74.42489999999999</v>
+        <v>95.2516</v>
       </c>
       <c r="E12">
-        <v>0.0124962</v>
+        <v>0.0125044</v>
       </c>
       <c r="F12">
-        <v>52.6403</v>
+        <v>67.36709999999999</v>
       </c>
       <c r="G12">
-        <v>52.6314</v>
+        <v>67.35980000000001</v>
       </c>
       <c r="H12">
-        <v>0.4151261983643027</v>
+        <v>0.4151178785067656</v>
       </c>
       <c r="I12">
-        <v>0.4140781872443735</v>
+        <v>0.4140700727803335</v>
       </c>
       <c r="J12">
-        <v>0.4140779078648866</v>
+        <v>0.4140718945127507</v>
       </c>
     </row>
   </sheetData>
@@ -2249,31 +2249,31 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>139.2752</v>
+        <v>267.7854</v>
       </c>
       <c r="C2">
-        <v>139.2607</v>
+        <v>267.7738</v>
       </c>
       <c r="D2">
-        <v>0.01691226</v>
+        <v>0.01691249</v>
       </c>
       <c r="E2">
-        <v>98.50344</v>
+        <v>189.4187</v>
       </c>
       <c r="F2">
-        <v>98.49315</v>
+        <v>189.4104</v>
       </c>
       <c r="G2">
-        <v>0.01195012</v>
+        <v>0.01195029</v>
       </c>
       <c r="H2">
-        <v>0.4139120420566024</v>
+        <v>0.4137220876291516</v>
       </c>
       <c r="I2">
-        <v>0.4139125411259566</v>
+        <v>0.4137227945244822</v>
       </c>
       <c r="J2">
-        <v>0.4152376712535103</v>
+        <v>0.4152367850487308</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2281,31 +2281,31 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>128.5386</v>
+        <v>225.9656</v>
       </c>
       <c r="C3">
-        <v>128.5246</v>
+        <v>225.9547</v>
       </c>
       <c r="D3">
-        <v>0.0169122</v>
+        <v>0.01691243</v>
       </c>
       <c r="E3">
-        <v>90.90795</v>
+        <v>159.8265</v>
       </c>
       <c r="F3">
-        <v>90.89801</v>
+        <v>159.8188</v>
       </c>
       <c r="G3">
-        <v>0.01195008</v>
+        <v>0.01195025</v>
       </c>
       <c r="H3">
-        <v>0.4139423449764295</v>
+        <v>0.4138181090119597</v>
       </c>
       <c r="I3">
-        <v>0.4139429455056276</v>
+        <v>0.4138180239120803</v>
       </c>
       <c r="J3">
-        <v>0.4152373875321336</v>
+        <v>0.4152365013284239</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2313,31 +2313,31 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>118.9567</v>
+        <v>194.7659</v>
       </c>
       <c r="C4">
-        <v>118.9431</v>
+        <v>194.7555</v>
       </c>
       <c r="D4">
-        <v>0.01691213</v>
+        <v>0.01691237</v>
       </c>
       <c r="E4">
-        <v>84.12963000000001</v>
+        <v>137.7522</v>
       </c>
       <c r="F4">
-        <v>84.12000999999999</v>
+        <v>137.7449</v>
       </c>
       <c r="G4">
-        <v>0.01195004</v>
+        <v>0.0119502</v>
       </c>
       <c r="H4">
-        <v>0.4139691331104153</v>
+        <v>0.4138859488269516</v>
       </c>
       <c r="I4">
-        <v>0.4139691614397099</v>
+        <v>0.4138853779704367</v>
       </c>
       <c r="J4">
-        <v>0.415236266991575</v>
+        <v>0.4152374018844873</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2345,31 +2345,31 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>110.5008</v>
+        <v>170.9338</v>
       </c>
       <c r="C5">
-        <v>110.4876</v>
+        <v>170.9238</v>
       </c>
       <c r="D5">
-        <v>0.01691207</v>
+        <v>0.01691231</v>
       </c>
       <c r="E5">
-        <v>78.14811</v>
+        <v>120.8922</v>
       </c>
       <c r="F5">
-        <v>78.1388</v>
+        <v>120.8852</v>
       </c>
       <c r="G5">
-        <v>0.01194999</v>
+        <v>0.01195016</v>
       </c>
       <c r="H5">
-        <v>0.4139919698633786</v>
+        <v>0.4139357212458702</v>
       </c>
       <c r="I5">
-        <v>0.413991512539225</v>
+        <v>0.4139348737479857</v>
       </c>
       <c r="J5">
-        <v>0.4152371675624834</v>
+        <v>0.4152371181641083</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2377,31 +2377,31 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>103.0256</v>
+        <v>152.19</v>
       </c>
       <c r="C6">
-        <v>103.0128</v>
+        <v>152.1804</v>
       </c>
       <c r="D6">
-        <v>0.01691201</v>
+        <v>0.01691224</v>
       </c>
       <c r="E6">
-        <v>72.86056000000001</v>
+        <v>107.6329</v>
       </c>
       <c r="F6">
-        <v>72.85153</v>
+        <v>107.6262</v>
       </c>
       <c r="G6">
-        <v>0.01194995</v>
+        <v>0.01195011</v>
       </c>
       <c r="H6">
-        <v>0.4140105428780672</v>
+        <v>0.4139728651741242</v>
       </c>
       <c r="I6">
-        <v>0.4140101107004891</v>
+        <v>0.4139716909079759</v>
       </c>
       <c r="J6">
-        <v>0.4152368838363341</v>
+        <v>0.4152371819171538</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2409,31 +2409,31 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>96.3974</v>
+        <v>137.0889</v>
       </c>
       <c r="C7">
-        <v>96.3849</v>
+        <v>137.0796</v>
       </c>
       <c r="D7">
-        <v>0.0169119</v>
+        <v>0.01691218</v>
       </c>
       <c r="E7">
-        <v>68.1722</v>
+        <v>96.95112</v>
       </c>
       <c r="F7">
-        <v>68.1634</v>
+        <v>96.94454</v>
       </c>
       <c r="G7">
-        <v>0.0119499</v>
+        <v>0.01195007</v>
       </c>
       <c r="H7">
-        <v>0.4140280055506497</v>
+        <v>0.4140001683322482</v>
       </c>
       <c r="I7">
-        <v>0.414027175874443</v>
+        <v>0.414000210842199</v>
       </c>
       <c r="J7">
-        <v>0.415233600281174</v>
+        <v>0.4152368981939017</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2441,31 +2441,31 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>90.498</v>
+        <v>124.677</v>
       </c>
       <c r="C8">
-        <v>90.4859</v>
+        <v>124.6679</v>
       </c>
       <c r="D8">
-        <v>0.0169119</v>
+        <v>0.01691212</v>
       </c>
       <c r="E8">
-        <v>63.9995</v>
+        <v>88.1718</v>
       </c>
       <c r="F8">
-        <v>63.9909</v>
+        <v>88.16538</v>
       </c>
       <c r="G8">
-        <v>0.0119499</v>
+        <v>0.01195003</v>
       </c>
       <c r="H8">
-        <v>0.4140422972054471</v>
+        <v>0.4140235313331473</v>
       </c>
       <c r="I8">
-        <v>0.4140432467741507</v>
+        <v>0.4140232821545147</v>
       </c>
       <c r="J8">
-        <v>0.415233600281174</v>
+        <v>0.4152366144687502</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2473,31 +2473,31 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>85.226</v>
+        <v>114.3025</v>
       </c>
       <c r="C9">
-        <v>85.2141</v>
+        <v>114.2936</v>
       </c>
       <c r="D9">
-        <v>0.0169118</v>
+        <v>0.01691206</v>
       </c>
       <c r="E9">
-        <v>60.2706</v>
+        <v>80.83389</v>
       </c>
       <c r="F9">
-        <v>60.2623</v>
+        <v>80.82761000000001</v>
       </c>
       <c r="G9">
-        <v>0.0119498</v>
+        <v>0.01194998</v>
       </c>
       <c r="H9">
-        <v>0.4140559410392463</v>
+        <v>0.41404180845435</v>
       </c>
       <c r="I9">
-        <v>0.4140532306267766</v>
+        <v>0.4140415632727479</v>
       </c>
       <c r="J9">
-        <v>0.4152370750974912</v>
+        <v>0.4152375150418661</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2505,31 +2505,31 @@
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>80.4948</v>
+        <v>105.5066</v>
       </c>
       <c r="C10">
-        <v>80.4833</v>
+        <v>105.4979</v>
       </c>
       <c r="D10">
-        <v>0.0169118</v>
+        <v>0.016912</v>
       </c>
       <c r="E10">
-        <v>56.9244</v>
+        <v>74.61265</v>
       </c>
       <c r="F10">
-        <v>56.9162</v>
+        <v>74.60648999999999</v>
       </c>
       <c r="G10">
-        <v>0.0119498</v>
+        <v>0.01194994</v>
       </c>
       <c r="H10">
-        <v>0.4140649703817695</v>
+        <v>0.4140578038710594</v>
       </c>
       <c r="I10">
-        <v>0.4140666453487759</v>
+        <v>0.4140579458972002</v>
       </c>
       <c r="J10">
-        <v>0.4152370750974912</v>
+        <v>0.4152372313166427</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2537,31 +2537,31 @@
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>76.2315</v>
+        <v>97.9572</v>
       </c>
       <c r="C11">
-        <v>76.2201</v>
+        <v>97.9487</v>
       </c>
       <c r="D11">
-        <v>0.0169117</v>
+        <v>0.0169119</v>
       </c>
       <c r="E11">
-        <v>53.909</v>
+        <v>69.2732</v>
       </c>
       <c r="F11">
-        <v>53.901</v>
+        <v>69.2672</v>
       </c>
       <c r="G11">
-        <v>0.0119497</v>
+        <v>0.0119499</v>
       </c>
       <c r="H11">
-        <v>0.41407742677475</v>
+        <v>0.4140706651345686</v>
       </c>
       <c r="I11">
-        <v>0.41407580564368</v>
+        <v>0.4140704402661</v>
       </c>
       <c r="J11">
-        <v>0.4152405499719659</v>
+        <v>0.415233600281174</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2569,31 +2569,31 @@
         <v>0.999</v>
       </c>
       <c r="B12">
-        <v>72.4109</v>
+        <v>91.4701</v>
       </c>
       <c r="C12">
-        <v>72.3998</v>
+        <v>91.4616</v>
       </c>
       <c r="D12">
-        <v>0.0169116</v>
+        <v>0.0169119</v>
       </c>
       <c r="E12">
-        <v>51.2069</v>
+        <v>64.68519999999999</v>
       </c>
       <c r="F12">
-        <v>51.199</v>
+        <v>64.67919999999999</v>
       </c>
       <c r="G12">
-        <v>0.0119497</v>
+        <v>0.0119499</v>
       </c>
       <c r="H12">
-        <v>0.4140848206003488</v>
+        <v>0.4140808098297603</v>
       </c>
       <c r="I12">
-        <v>0.4140862126213403</v>
+        <v>0.414080569951391</v>
       </c>
       <c r="J12">
-        <v>0.4152321815610432</v>
+        <v>0.415233600281174</v>
       </c>
     </row>
   </sheetData>
@@ -2646,31 +2646,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>94.98690000000001</v>
+        <v>125.3314</v>
       </c>
       <c r="C2">
-        <v>87.09699999999999</v>
+        <v>115.2166</v>
       </c>
       <c r="D2">
-        <v>83.48350000000001</v>
+        <v>105.3058</v>
       </c>
       <c r="E2">
-        <v>67.2362</v>
+        <v>88.90689999999999</v>
       </c>
       <c r="F2">
-        <v>61.5222</v>
+        <v>81.483</v>
       </c>
       <c r="G2">
-        <v>59.074</v>
+        <v>74.61423000000001</v>
       </c>
       <c r="H2">
-        <v>0.4127345090888541</v>
+        <v>0.4096926110346892</v>
       </c>
       <c r="I2">
-        <v>0.4157003488171749</v>
+        <v>0.413995557355522</v>
       </c>
       <c r="J2">
-        <v>0.4132020855198566</v>
+        <v>0.4113366847047808</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2678,31 +2678,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>72.7544</v>
+        <v>93.16970000000001</v>
       </c>
       <c r="C3">
-        <v>3.7959</v>
+        <v>3.75676</v>
       </c>
       <c r="D3">
-        <v>75.6977</v>
+        <v>96.51139999999999</v>
       </c>
       <c r="E3">
-        <v>52.6142</v>
+        <v>67.33159999999999</v>
       </c>
       <c r="F3">
-        <v>0.0114329</v>
+        <v>0.011459</v>
       </c>
       <c r="G3">
-        <v>52.6215</v>
+        <v>67.3368</v>
       </c>
       <c r="H3">
-        <v>0.3827901973231563</v>
+        <v>0.3837440369752095</v>
       </c>
       <c r="I3">
-        <v>331.0154991297047</v>
+        <v>326.8436163714111</v>
       </c>
       <c r="J3">
-        <v>0.438531778835647</v>
+        <v>0.4332638319611267</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2710,31 +2710,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.03366</v>
+        <v>3.98398</v>
       </c>
       <c r="C4">
-        <v>76.0141</v>
+        <v>96.9085</v>
       </c>
       <c r="D4">
-        <v>73.0723</v>
+        <v>93.5702</v>
       </c>
       <c r="E4">
-        <v>0.0124948</v>
+        <v>0.012503</v>
       </c>
       <c r="F4">
-        <v>52.6223</v>
+        <v>67.3378</v>
       </c>
       <c r="G4">
-        <v>52.6134</v>
+        <v>67.3306</v>
       </c>
       <c r="H4">
-        <v>321.827096071966</v>
+        <v>317.6419259377749</v>
       </c>
       <c r="I4">
-        <v>0.4445225693289726</v>
+        <v>0.4391396808330537</v>
       </c>
       <c r="J4">
-        <v>0.3888534099678029</v>
+        <v>0.3897128497295434</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2742,31 +2742,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>73.9909</v>
+        <v>93.02200000000001</v>
       </c>
       <c r="C5">
-        <v>70.9552</v>
+        <v>89.61060000000001</v>
       </c>
       <c r="D5">
-        <v>3.91181</v>
+        <v>3.8648</v>
       </c>
       <c r="E5">
-        <v>51.1809</v>
+        <v>64.64190000000001</v>
       </c>
       <c r="F5">
-        <v>51.173</v>
+        <v>64.63590000000001</v>
       </c>
       <c r="G5">
-        <v>0.0119497</v>
+        <v>0.0119499</v>
       </c>
       <c r="H5">
-        <v>0.4456740698190144</v>
+        <v>0.4390356719093962</v>
       </c>
       <c r="I5">
-        <v>0.3865749516346511</v>
+        <v>0.3863905352907594</v>
       </c>
       <c r="J5">
-        <v>326.3563353054888</v>
+        <v>322.4169323592666</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2774,31 +2774,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.8978</v>
+        <v>3.851</v>
       </c>
       <c r="C6">
-        <v>3.9267</v>
+        <v>3.8792</v>
       </c>
       <c r="D6">
-        <v>3.9119</v>
+        <v>3.8649</v>
       </c>
       <c r="E6">
-        <v>0.0079668</v>
+        <v>0.007966900000000001</v>
       </c>
       <c r="F6">
-        <v>0.0079668</v>
+        <v>0.007966900000000001</v>
       </c>
       <c r="G6">
-        <v>0.0079668</v>
+        <v>0.007966900000000001</v>
       </c>
       <c r="H6">
-        <v>488.2554099512979</v>
+        <v>482.3749639131908</v>
       </c>
       <c r="I6">
-        <v>491.8829643018527</v>
+        <v>485.9146091955465</v>
       </c>
       <c r="J6">
-        <v>490.0252548074509</v>
+        <v>484.1196826871179</v>
       </c>
     </row>
   </sheetData>
@@ -2851,31 +2851,31 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>197.0169</v>
+        <v>442.8133</v>
       </c>
       <c r="C2">
-        <v>129.6453</v>
+        <v>315.376</v>
       </c>
       <c r="D2">
-        <v>115.1187</v>
+        <v>155.4762</v>
       </c>
       <c r="E2">
-        <v>139.2475</v>
+        <v>313.1492</v>
       </c>
       <c r="F2">
-        <v>91.78848000000001</v>
+        <v>223.3222</v>
       </c>
       <c r="G2">
-        <v>81.28563</v>
+        <v>109.82</v>
       </c>
       <c r="H2">
-        <v>0.4148684895599561</v>
+        <v>0.4140649249622864</v>
       </c>
       <c r="I2">
-        <v>0.4124354167320342</v>
+        <v>0.4122017425943322</v>
       </c>
       <c r="J2">
-        <v>0.4162244913399823</v>
+        <v>0.4157366599890732</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2883,31 +2883,31 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>181.6935</v>
+        <v>372.398</v>
       </c>
       <c r="C3">
-        <v>125.1666</v>
+        <v>271.1367</v>
       </c>
       <c r="D3">
-        <v>110.9888</v>
+        <v>148.759</v>
       </c>
       <c r="E3">
-        <v>128.4039</v>
+        <v>263.2812</v>
       </c>
       <c r="F3">
-        <v>88.61026</v>
+        <v>191.9728</v>
       </c>
       <c r="G3">
-        <v>78.3788</v>
+        <v>105.0978</v>
       </c>
       <c r="H3">
-        <v>0.4150154317742686</v>
+        <v>0.4144496454741167</v>
       </c>
       <c r="I3">
-        <v>0.412552000185983</v>
+        <v>0.4123703983064268</v>
       </c>
       <c r="J3">
-        <v>0.4160563825932523</v>
+        <v>0.4154340052788924</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2915,31 +2915,31 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>167.4036</v>
+        <v>313.9978</v>
       </c>
       <c r="C4">
-        <v>120.3419</v>
+        <v>234.5662</v>
       </c>
       <c r="D4">
-        <v>107.0988</v>
+        <v>142.4603</v>
       </c>
       <c r="E4">
-        <v>118.2931</v>
+        <v>221.9535</v>
       </c>
       <c r="F4">
-        <v>85.17583999999999</v>
+        <v>166.0394</v>
       </c>
       <c r="G4">
-        <v>75.64281</v>
+        <v>100.6724</v>
       </c>
       <c r="H4">
-        <v>0.4151594640769413</v>
+        <v>0.4147008269750195</v>
       </c>
       <c r="I4">
-        <v>0.4128642582215802</v>
+        <v>0.4127140907519541</v>
       </c>
       <c r="J4">
-        <v>0.4158490410390624</v>
+        <v>0.415087948633389</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2947,31 +2947,31 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>154.4452</v>
+        <v>268.3404</v>
       </c>
       <c r="C5">
-        <v>115.4699</v>
+        <v>206.036</v>
       </c>
       <c r="D5">
-        <v>103.4645</v>
+        <v>136.609</v>
       </c>
       <c r="E5">
-        <v>109.1302</v>
+        <v>189.6822</v>
       </c>
       <c r="F5">
-        <v>81.70421</v>
+        <v>145.8104</v>
       </c>
       <c r="G5">
-        <v>73.08843</v>
+        <v>96.56361</v>
       </c>
       <c r="H5">
-        <v>0.4152379451334278</v>
+        <v>0.4146841401038157</v>
       </c>
       <c r="I5">
-        <v>0.413267443623774</v>
+        <v>0.4130404964254952</v>
       </c>
       <c r="J5">
-        <v>0.4156070940366348</v>
+        <v>0.4147047733613109</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2979,31 +2979,31 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>142.8121</v>
+        <v>232.7733</v>
       </c>
       <c r="C6">
-        <v>110.7082</v>
+        <v>183.8046</v>
       </c>
       <c r="D6">
-        <v>100.062</v>
+        <v>131.1665</v>
       </c>
       <c r="E6">
-        <v>100.912</v>
+        <v>164.5722</v>
       </c>
       <c r="F6">
-        <v>78.31091000000001</v>
+        <v>130.0525</v>
       </c>
       <c r="G6">
-        <v>70.69844999999999</v>
+        <v>92.74362000000001</v>
       </c>
       <c r="H6">
-        <v>0.4152142460757886</v>
+        <v>0.4144144636822015</v>
       </c>
       <c r="I6">
-        <v>0.4137008496006495</v>
+        <v>0.4133107783395166</v>
       </c>
       <c r="J6">
-        <v>0.4153351311096637</v>
+        <v>0.4142913550279793</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3011,31 +3011,31 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>132.4221</v>
+        <v>204.7363</v>
       </c>
       <c r="C7">
-        <v>106.1454</v>
+        <v>166.2234</v>
       </c>
       <c r="D7">
-        <v>96.87003</v>
+        <v>126.097</v>
       </c>
       <c r="E7">
-        <v>93.57966</v>
+        <v>144.7986</v>
       </c>
       <c r="F7">
-        <v>75.0608</v>
+        <v>117.5948</v>
       </c>
       <c r="G7">
-        <v>68.4577</v>
+        <v>89.18698000000001</v>
       </c>
       <c r="H7">
-        <v>0.4150735320047112</v>
+        <v>0.4139383944319904</v>
       </c>
       <c r="I7">
-        <v>0.4141256155010338</v>
+        <v>0.4135267885994958</v>
       </c>
       <c r="J7">
-        <v>0.4150348317282058</v>
+        <v>0.413849869117667</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3043,31 +3043,31 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>123.1596</v>
+        <v>182.2726</v>
       </c>
       <c r="C8">
-        <v>101.8256</v>
+        <v>152.0494</v>
       </c>
       <c r="D8">
-        <v>93.86998</v>
+        <v>121.368</v>
       </c>
       <c r="E8">
-        <v>87.04994000000001</v>
+        <v>128.9695</v>
       </c>
       <c r="F8">
-        <v>71.98585</v>
+        <v>107.5546</v>
       </c>
       <c r="G8">
-        <v>66.35283</v>
+        <v>85.87048</v>
       </c>
       <c r="H8">
-        <v>0.4148154496143247</v>
+        <v>0.4133000438088075</v>
       </c>
       <c r="I8">
-        <v>0.4145224373956826</v>
+        <v>0.413694997703492</v>
       </c>
       <c r="J8">
-        <v>0.4147095157810149</v>
+        <v>0.4133844366539001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3075,31 +3075,31 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>114.9002</v>
+        <v>163.9724</v>
       </c>
       <c r="C9">
-        <v>97.7651</v>
+        <v>140.3991</v>
       </c>
       <c r="D9">
-        <v>91.04527</v>
+        <v>116.9499</v>
       </c>
       <c r="E9">
-        <v>81.23339</v>
+        <v>116.0839</v>
       </c>
       <c r="F9">
-        <v>69.09778</v>
+        <v>99.30468999999999</v>
       </c>
       <c r="G9">
-        <v>64.37199</v>
+        <v>82.77307999999999</v>
       </c>
       <c r="H9">
-        <v>0.4144454638665209</v>
+        <v>0.4125335210136806</v>
       </c>
       <c r="I9">
-        <v>0.4148804780703519</v>
+        <v>0.4138214418674487</v>
       </c>
       <c r="J9">
-        <v>0.4143615880136688</v>
+        <v>0.4128977682115974</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3107,31 +3107,31 @@
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>107.5231</v>
+        <v>148.8308</v>
       </c>
       <c r="C10">
-        <v>93.96384</v>
+        <v>130.6505</v>
       </c>
       <c r="D10">
-        <v>88.38115000000001</v>
+        <v>112.816</v>
       </c>
       <c r="E10">
-        <v>76.04352</v>
+        <v>105.4293</v>
       </c>
       <c r="F10">
-        <v>66.39635</v>
+        <v>92.40362</v>
       </c>
       <c r="G10">
-        <v>62.50465</v>
+        <v>79.87573999999999</v>
       </c>
       <c r="H10">
-        <v>0.4139679488797993</v>
+        <v>0.4116644993374708</v>
       </c>
       <c r="I10">
-        <v>0.4151958654353742</v>
+        <v>0.4139110567313271</v>
       </c>
       <c r="J10">
-        <v>0.4139931989060015</v>
+        <v>0.4123938006708922</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3139,31 +3139,31 @@
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>100.9181</v>
+        <v>136.1258</v>
       </c>
       <c r="C11">
-        <v>90.41251</v>
+        <v>122.3623</v>
       </c>
       <c r="D11">
-        <v>85.86448</v>
+        <v>108.9419</v>
       </c>
       <c r="E11">
-        <v>71.40119</v>
+        <v>96.49437</v>
       </c>
       <c r="F11">
-        <v>63.87463</v>
+        <v>86.53824</v>
       </c>
       <c r="G11">
-        <v>60.74146</v>
+        <v>77.16128999999999</v>
       </c>
       <c r="H11">
-        <v>0.4133952109201541</v>
+        <v>0.4107123555498626</v>
       </c>
       <c r="I11">
-        <v>0.4154682383287385</v>
+        <v>0.4139679753135724</v>
       </c>
       <c r="J11">
-        <v>0.413605797424033</v>
+        <v>0.4118724557352529</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3171,31 +3171,31 @@
         <v>0.999</v>
       </c>
       <c r="B12">
-        <v>95.0432</v>
+        <v>125.4312</v>
       </c>
       <c r="C12">
-        <v>87.129</v>
+        <v>115.2832</v>
       </c>
       <c r="D12">
-        <v>83.50660000000001</v>
+        <v>105.3411</v>
       </c>
       <c r="E12">
-        <v>67.2756</v>
+        <v>88.97707</v>
       </c>
       <c r="F12">
-        <v>61.545</v>
+        <v>81.53012</v>
       </c>
       <c r="G12">
-        <v>59.0902</v>
+        <v>74.63892</v>
       </c>
       <c r="H12">
-        <v>0.4127439963374537</v>
+        <v>0.4097025222340993</v>
       </c>
       <c r="I12">
-        <v>0.4156958323178163</v>
+        <v>0.4139952204166999</v>
       </c>
       <c r="J12">
-        <v>0.4132055738515016</v>
+        <v>0.4113427686252695</v>
       </c>
     </row>
   </sheetData>
@@ -3248,31 +3248,31 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>111.125</v>
+        <v>164.9212</v>
       </c>
       <c r="C2">
-        <v>3.467157</v>
+        <v>3.549254</v>
       </c>
       <c r="D2">
-        <v>113.9614</v>
+        <v>168.4193</v>
       </c>
       <c r="E2">
-        <v>79.86621</v>
+        <v>118.2964</v>
       </c>
       <c r="F2">
-        <v>0.009735796</v>
+        <v>0.01079277</v>
       </c>
       <c r="G2">
-        <v>79.87085999999999</v>
+        <v>118.2961</v>
       </c>
       <c r="H2">
-        <v>0.3913894248894496</v>
+        <v>0.394135409023436</v>
       </c>
       <c r="I2">
-        <v>355.1246558576207</v>
+        <v>327.8547796348852</v>
       </c>
       <c r="J2">
-        <v>0.4268207453882431</v>
+        <v>0.4237096573767014</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3280,31 +3280,31 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>105.6483</v>
+        <v>153.424</v>
       </c>
       <c r="C3">
-        <v>3.51287</v>
+        <v>3.56128</v>
       </c>
       <c r="D3">
-        <v>108.4992</v>
+        <v>156.8981</v>
       </c>
       <c r="E3">
-        <v>75.97145</v>
+        <v>110.1222</v>
       </c>
       <c r="F3">
-        <v>0.00995384</v>
+        <v>0.01071586</v>
       </c>
       <c r="G3">
-        <v>75.97648</v>
+        <v>110.1228</v>
       </c>
       <c r="H3">
-        <v>0.3906316122701357</v>
+        <v>0.3932159001545555</v>
       </c>
       <c r="I3">
-        <v>351.9160605354315</v>
+        <v>331.3373019057733</v>
       </c>
       <c r="J3">
-        <v>0.4280630005496439</v>
+        <v>0.4247558180503947</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3312,31 +3312,31 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>100.6294</v>
+        <v>143.2807</v>
       </c>
       <c r="C4">
-        <v>3.555137</v>
+        <v>3.578956</v>
       </c>
       <c r="D4">
-        <v>103.4938</v>
+        <v>146.7332</v>
       </c>
       <c r="E4">
-        <v>72.40361</v>
+        <v>102.9136</v>
       </c>
       <c r="F4">
-        <v>0.01016164</v>
+        <v>0.01070837</v>
       </c>
       <c r="G4">
-        <v>72.40899</v>
+        <v>102.915</v>
       </c>
       <c r="H4">
-        <v>0.3898395397688044</v>
+        <v>0.3922426190513206</v>
       </c>
       <c r="I4">
-        <v>348.8585858188246</v>
+        <v>333.2204275720767</v>
       </c>
       <c r="J4">
-        <v>0.4292948983268512</v>
+        <v>0.4257707817130642</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3344,31 +3344,31 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>96.05759999999999</v>
+        <v>134.3566</v>
       </c>
       <c r="C5">
-        <v>3.59394</v>
+        <v>3.599845</v>
       </c>
       <c r="D5">
-        <v>98.9344</v>
+        <v>137.7897</v>
       </c>
       <c r="E5">
-        <v>69.15479999999999</v>
+        <v>96.57353999999999</v>
       </c>
       <c r="F5">
-        <v>0.0103571</v>
+        <v>0.01074822</v>
       </c>
       <c r="G5">
-        <v>69.1605</v>
+        <v>96.57559999999999</v>
       </c>
       <c r="H5">
-        <v>0.389022887782193</v>
+        <v>0.3912361501918641</v>
       </c>
       <c r="I5">
-        <v>346.0025393208524</v>
+        <v>333.9247596346186</v>
       </c>
       <c r="J5">
-        <v>0.4305044064169576</v>
+        <v>0.4267547910652382</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3376,31 +3376,31 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>91.8759</v>
+        <v>126.4484</v>
       </c>
       <c r="C6">
-        <v>3.62968</v>
+        <v>3.622419</v>
       </c>
       <c r="D6">
-        <v>94.7641</v>
+        <v>129.8642</v>
       </c>
       <c r="E6">
-        <v>66.18429999999999</v>
+        <v>90.95671</v>
       </c>
       <c r="F6">
-        <v>0.0105408</v>
+        <v>0.01081915</v>
       </c>
       <c r="G6">
-        <v>66.19029999999999</v>
+        <v>90.95937000000001</v>
       </c>
       <c r="H6">
-        <v>0.3881826958961568</v>
+        <v>0.3902041971394964</v>
       </c>
       <c r="I6">
-        <v>343.345780206436</v>
+        <v>333.8154892020168</v>
       </c>
       <c r="J6">
-        <v>0.4316916527043994</v>
+        <v>0.4277165727950842</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3408,31 +3408,31 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>88.0365</v>
+        <v>119.3949</v>
       </c>
       <c r="C7">
-        <v>3.66269</v>
+        <v>3.645688</v>
       </c>
       <c r="D7">
-        <v>90.9354</v>
+        <v>122.7951</v>
       </c>
       <c r="E7">
-        <v>63.4578</v>
+        <v>85.9479</v>
       </c>
       <c r="F7">
-        <v>0.0107133</v>
+        <v>0.01090988</v>
       </c>
       <c r="G7">
-        <v>63.464</v>
+        <v>85.95111</v>
       </c>
       <c r="H7">
-        <v>0.3873235441506009</v>
+        <v>0.3891543597923859</v>
       </c>
       <c r="I7">
-        <v>340.8825198584937</v>
+        <v>333.1638954782271</v>
       </c>
       <c r="J7">
-        <v>0.4328658767175092</v>
+        <v>0.4286621778357488</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3440,31 +3440,31 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>84.499</v>
+        <v>113.0666</v>
       </c>
       <c r="C8">
-        <v>3.69327</v>
+        <v>3.669014</v>
       </c>
       <c r="D8">
-        <v>87.4079</v>
+        <v>116.4527</v>
       </c>
       <c r="E8">
-        <v>60.9465</v>
+        <v>81.45482</v>
       </c>
       <c r="F8">
-        <v>0.0108754</v>
+        <v>0.01101263</v>
       </c>
       <c r="G8">
-        <v>60.953</v>
+        <v>81.45851999999999</v>
       </c>
       <c r="H8">
-        <v>0.386445489076485</v>
+        <v>0.3880897410368103</v>
       </c>
       <c r="I8">
-        <v>338.5985435018482</v>
+        <v>332.1641942024748</v>
       </c>
       <c r="J8">
-        <v>0.4340212950962216</v>
+        <v>0.4295950871682913</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3472,31 +3472,31 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>81.2294</v>
+        <v>107.3587</v>
       </c>
       <c r="C9">
-        <v>3.72167</v>
+        <v>3.691989</v>
       </c>
       <c r="D9">
-        <v>84.1476</v>
+        <v>110.732</v>
       </c>
       <c r="E9">
-        <v>58.626</v>
+        <v>77.40268</v>
       </c>
       <c r="F9">
-        <v>0.0110277</v>
+        <v>0.01112204</v>
       </c>
       <c r="G9">
-        <v>58.6327</v>
+        <v>77.40680999999999</v>
       </c>
       <c r="H9">
-        <v>0.3855524852454543</v>
+        <v>0.3870152816414108</v>
       </c>
       <c r="I9">
-        <v>336.4837908176683</v>
+        <v>330.9525015195054</v>
       </c>
       <c r="J9">
-        <v>0.4351650188376111</v>
+        <v>0.4305201312390991</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3504,31 +3504,31 @@
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>78.1982</v>
+        <v>102.1851</v>
       </c>
       <c r="C10">
-        <v>3.74812</v>
+        <v>3.714362</v>
       </c>
       <c r="D10">
-        <v>81.1253</v>
+        <v>105.5469</v>
       </c>
       <c r="E10">
-        <v>56.4753</v>
+        <v>73.73032000000001</v>
       </c>
       <c r="F10">
-        <v>0.011171</v>
+        <v>0.01123444</v>
       </c>
       <c r="G10">
-        <v>56.4822</v>
+        <v>73.73484999999999</v>
       </c>
       <c r="H10">
-        <v>0.3846442604111887</v>
+        <v>0.3859305099991428</v>
       </c>
       <c r="I10">
-        <v>334.5223346164175</v>
+        <v>329.6227991782412</v>
       </c>
       <c r="J10">
-        <v>0.4362985152844612</v>
+        <v>0.4314384582053127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3536,31 +3536,31 @@
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>75.3805</v>
+        <v>97.47512999999999</v>
       </c>
       <c r="C11">
-        <v>3.77281</v>
+        <v>3.735981</v>
       </c>
       <c r="D11">
-        <v>78.3159</v>
+        <v>100.8264</v>
       </c>
       <c r="E11">
-        <v>54.4766</v>
+        <v>70.38728</v>
       </c>
       <c r="F11">
-        <v>0.0113058</v>
+        <v>0.01134731</v>
       </c>
       <c r="G11">
-        <v>54.4837</v>
+        <v>70.39216999999999</v>
       </c>
       <c r="H11">
-        <v>0.3837225524353576</v>
+        <v>0.3848401302053437</v>
       </c>
       <c r="I11">
-        <v>332.7057085743601</v>
+        <v>328.2393527629015</v>
       </c>
       <c r="J11">
-        <v>0.437418897762083</v>
+        <v>0.4323524903409003</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3568,31 +3568,31 @@
         <v>0.999</v>
       </c>
       <c r="B12">
-        <v>72.77979999999999</v>
+        <v>93.2109</v>
       </c>
       <c r="C12">
-        <v>3.79567</v>
+        <v>3.75656</v>
       </c>
       <c r="D12">
-        <v>75.723</v>
+        <v>96.5527</v>
       </c>
       <c r="E12">
-        <v>52.6322</v>
+        <v>67.3608</v>
       </c>
       <c r="F12">
-        <v>0.0114317</v>
+        <v>0.0114579</v>
       </c>
       <c r="G12">
-        <v>52.6395</v>
+        <v>67.366</v>
       </c>
       <c r="H12">
-        <v>0.382799882961381</v>
+        <v>0.3837558342537499</v>
       </c>
       <c r="I12">
-        <v>331.0302317240655</v>
+        <v>326.8576353433003</v>
       </c>
       <c r="J12">
-        <v>0.4385205026643491</v>
+        <v>0.433255648249859</v>
       </c>
     </row>
   </sheetData>
@@ -3645,31 +3645,31 @@
         <v>0.001</v>
       </c>
       <c r="B2">
-        <v>4.425026</v>
+        <v>4.398561</v>
       </c>
       <c r="C2">
-        <v>115.1761</v>
+        <v>170.1868</v>
       </c>
       <c r="D2">
-        <v>112.3087</v>
+        <v>166.6493</v>
       </c>
       <c r="E2">
-        <v>0.01476966</v>
+        <v>0.01513396</v>
       </c>
       <c r="F2">
-        <v>79.87456</v>
+        <v>118.3016</v>
       </c>
       <c r="G2">
-        <v>79.86252</v>
+        <v>118.2909</v>
       </c>
       <c r="H2">
-        <v>298.6024282210965</v>
+        <v>289.641775186402</v>
       </c>
       <c r="I2">
-        <v>0.4419622468029871</v>
+        <v>0.4385840935371966</v>
       </c>
       <c r="J2">
-        <v>0.4062754343339028</v>
+        <v>0.4088091307108156</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3677,31 +3677,31 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>4.366473</v>
+        <v>4.333959</v>
       </c>
       <c r="C3">
-        <v>109.5861</v>
+        <v>158.4456</v>
       </c>
       <c r="D3">
-        <v>106.7085</v>
+        <v>154.9383</v>
       </c>
       <c r="E3">
-        <v>0.01442397</v>
+        <v>0.01469627</v>
       </c>
       <c r="F3">
-        <v>75.97976</v>
+        <v>110.1275</v>
       </c>
       <c r="G3">
-        <v>75.96817</v>
+        <v>110.1174</v>
       </c>
       <c r="H3">
-        <v>301.7233833681018</v>
+        <v>293.9019717247982</v>
       </c>
       <c r="I3">
-        <v>0.4423064774092469</v>
+        <v>0.438746906994166</v>
       </c>
       <c r="J3">
-        <v>0.4046474990775742</v>
+        <v>0.4070283170507113</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3709,31 +3709,31 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>4.313546</v>
+        <v>4.276348</v>
       </c>
       <c r="C4">
-        <v>104.4634</v>
+        <v>148.0867</v>
       </c>
       <c r="D4">
-        <v>101.5763</v>
+        <v>144.6068</v>
       </c>
       <c r="E4">
-        <v>0.01411259</v>
+        <v>0.01431443</v>
       </c>
       <c r="F4">
-        <v>72.41189</v>
+        <v>102.9191</v>
       </c>
       <c r="G4">
-        <v>72.40071</v>
+        <v>102.9095</v>
       </c>
       <c r="H4">
-        <v>304.6523288779735</v>
+        <v>297.7438549771105</v>
       </c>
       <c r="I4">
-        <v>0.4426277231543051</v>
+        <v>0.4388650891816971</v>
       </c>
       <c r="J4">
-        <v>0.4029738106159456</v>
+        <v>0.4051841666707156</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3741,31 +3741,31 @@
         <v>0.3</v>
       </c>
       <c r="B5">
-        <v>4.26596</v>
+        <v>4.225204</v>
       </c>
       <c r="C5">
-        <v>99.7971</v>
+        <v>138.9728</v>
       </c>
       <c r="D5">
-        <v>96.90130000000001</v>
+        <v>135.5173</v>
       </c>
       <c r="E5">
-        <v>0.0138338</v>
+        <v>0.01398217</v>
       </c>
       <c r="F5">
-        <v>69.1631</v>
+        <v>96.57916</v>
       </c>
       <c r="G5">
-        <v>69.1523</v>
+        <v>96.56998</v>
       </c>
       <c r="H5">
-        <v>307.3722476832107</v>
+        <v>301.1851400748238</v>
       </c>
       <c r="I5">
-        <v>0.4429240447579706</v>
+        <v>0.4389522542958543</v>
       </c>
       <c r="J5">
-        <v>0.401273710346583</v>
+        <v>0.4033067004880813</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3773,31 +3773,31 @@
         <v>0.4</v>
       </c>
       <c r="B6">
-        <v>4.22299</v>
+        <v>4.179533</v>
       </c>
       <c r="C6">
-        <v>95.529</v>
+        <v>130.8963</v>
       </c>
       <c r="D6">
-        <v>92.62520000000001</v>
+        <v>127.4628</v>
       </c>
       <c r="E6">
-        <v>0.013583</v>
+        <v>0.01369087</v>
       </c>
       <c r="F6">
-        <v>66.1925</v>
+        <v>90.96244</v>
       </c>
       <c r="G6">
-        <v>66.18210000000001</v>
+        <v>90.95363999999999</v>
       </c>
       <c r="H6">
-        <v>309.9025988367813</v>
+        <v>304.2788464137049</v>
       </c>
       <c r="I6">
-        <v>0.443199758280772</v>
+        <v>0.4390148285380207</v>
       </c>
       <c r="J6">
-        <v>0.3995506337816419</v>
+        <v>0.4014040559564193</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3805,31 +3805,31 @@
         <v>0.5</v>
       </c>
       <c r="B7">
-        <v>4.184</v>
+        <v>4.138529</v>
       </c>
       <c r="C7">
-        <v>91.6104</v>
+        <v>123.6925</v>
       </c>
       <c r="D7">
-        <v>88.6992</v>
+        <v>120.279</v>
       </c>
       <c r="E7">
-        <v>0.0133565</v>
+        <v>0.01343373</v>
       </c>
       <c r="F7">
-        <v>63.466</v>
+        <v>85.95375</v>
       </c>
       <c r="G7">
-        <v>63.4558</v>
+        <v>85.94526999999999</v>
       </c>
       <c r="H7">
-        <v>312.2557181896454</v>
+        <v>307.0699850302187</v>
       </c>
       <c r="I7">
-        <v>0.4434563388270885</v>
+        <v>0.4390587961549088</v>
       </c>
       <c r="J7">
-        <v>0.3978107596153543</v>
+        <v>0.3994836481402642</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3837,31 +3837,31 @@
         <v>0.6</v>
       </c>
       <c r="B8">
-        <v>4.14851</v>
+        <v>4.10153</v>
       </c>
       <c r="C8">
-        <v>88.0001</v>
+        <v>117.2294</v>
       </c>
       <c r="D8">
-        <v>85.0819</v>
+        <v>113.8338</v>
       </c>
       <c r="E8">
-        <v>0.0131512</v>
+        <v>0.01320533</v>
       </c>
       <c r="F8">
-        <v>60.9547</v>
+        <v>81.46075999999999</v>
       </c>
       <c r="G8">
-        <v>60.9448</v>
+        <v>81.45258</v>
       </c>
       <c r="H8">
-        <v>314.447259565667</v>
+        <v>309.5965545730399</v>
       </c>
       <c r="I8">
-        <v>0.4436967124766425</v>
+        <v>0.4390904283240177</v>
       </c>
       <c r="J8">
-        <v>0.3960485554140797</v>
+        <v>0.397546891700668</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3869,31 +3869,31 @@
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>4.11606</v>
+        <v>4.067992</v>
       </c>
       <c r="C9">
-        <v>84.6631</v>
+        <v>111.3998</v>
       </c>
       <c r="D9">
-        <v>81.7385</v>
+        <v>108.0205</v>
       </c>
       <c r="E9">
-        <v>0.0129645</v>
+        <v>0.0130013</v>
       </c>
       <c r="F9">
-        <v>58.6341</v>
+        <v>77.40871</v>
       </c>
       <c r="G9">
-        <v>58.6245</v>
+        <v>77.4008</v>
       </c>
       <c r="H9">
-        <v>316.4869836862201</v>
+        <v>311.8911724212194</v>
       </c>
       <c r="I9">
-        <v>0.4439225638323093</v>
+        <v>0.4391119552308778</v>
       </c>
       <c r="J9">
-        <v>0.3942720193775641</v>
+        <v>0.3955992702917798</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3901,31 +3901,31 @@
         <v>0.8</v>
       </c>
       <c r="B10">
-        <v>4.0863</v>
+        <v>4.037464</v>
       </c>
       <c r="C10">
-        <v>81.5697</v>
+        <v>106.1161</v>
       </c>
       <c r="D10">
-        <v>78.639</v>
+        <v>102.7516</v>
       </c>
       <c r="E10">
-        <v>0.0127941</v>
+        <v>0.0128181</v>
       </c>
       <c r="F10">
-        <v>56.4834</v>
+        <v>73.73642</v>
       </c>
       <c r="G10">
-        <v>56.4741</v>
+        <v>73.72875999999999</v>
       </c>
       <c r="H10">
-        <v>318.3894060543532</v>
+        <v>313.9814715129388</v>
       </c>
       <c r="I10">
-        <v>0.4441357991905585</v>
+        <v>0.4391273674528816</v>
       </c>
       <c r="J10">
-        <v>0.3924790302103087</v>
+        <v>0.3936434031984263</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3933,31 +3933,31 @@
         <v>0.9</v>
       </c>
       <c r="B11">
-        <v>4.05892</v>
+        <v>4.009566</v>
       </c>
       <c r="C11">
-        <v>78.69410000000001</v>
+        <v>101.3057</v>
       </c>
       <c r="D11">
-        <v>75.7577</v>
+        <v>97.95489000000001</v>
       </c>
       <c r="E11">
-        <v>0.012638</v>
+        <v>0.01265281</v>
       </c>
       <c r="F11">
-        <v>54.4847</v>
+        <v>70.39345</v>
       </c>
       <c r="G11">
-        <v>54.4756</v>
+        <v>70.38601</v>
       </c>
       <c r="H11">
-        <v>320.1679063142902</v>
+        <v>315.8913466652862</v>
       </c>
       <c r="I11">
-        <v>0.4443339139244597</v>
+        <v>0.4391353172773887</v>
       </c>
       <c r="J11">
-        <v>0.3906721541387337</v>
+        <v>0.3916812446109675</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3965,31 +3965,31 @@
         <v>0.999</v>
       </c>
       <c r="B12">
-        <v>4.0339</v>
+        <v>3.98422</v>
       </c>
       <c r="C12">
-        <v>76.04000000000001</v>
+        <v>96.95059999999999</v>
       </c>
       <c r="D12">
-        <v>73.09829999999999</v>
+        <v>93.6121</v>
       </c>
       <c r="E12">
-        <v>0.0124962</v>
+        <v>0.0125044</v>
       </c>
       <c r="F12">
-        <v>52.6403</v>
+        <v>67.36709999999999</v>
       </c>
       <c r="G12">
-        <v>52.6314</v>
+        <v>67.35980000000001</v>
       </c>
       <c r="H12">
-        <v>321.8101342808213</v>
+        <v>317.625443843767</v>
       </c>
       <c r="I12">
-        <v>0.4445206429294666</v>
+        <v>0.4391386893602367</v>
       </c>
       <c r="J12">
-        <v>0.3888724221662353</v>
+        <v>0.3897324516996783</v>
       </c>
     </row>
   </sheetData>

--- a/T2F_MATLAB/Curto_Circuito/DadosT2F.xlsx
+++ b/T2F_MATLAB/Curto_Circuito/DadosT2F.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\projetos\CurtosT2F\T2F_MATLAB\Curto_Circuito\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits\CurtosT2F\T2F_MATLAB\Curto_Circuito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F64BB14-75A8-4DA9-85D8-826E7D8A9AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE9990E-D377-4295-99C6-0CD55CDCDFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fim_Linha_sem_Comp" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <sheet name="Meio_Linha_com_Comp_BC" sheetId="9" r:id="rId9"/>
     <sheet name="Meio_Linha_com_Comp_AB" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="15">
   <si>
     <t>tipoCurto</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Trif</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -424,13 +436,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -465,8 +480,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>88.896600000000007</v>
@@ -497,8 +512,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3">
         <v>67.324799999999996</v>
@@ -529,8 +544,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1.2511E-2</v>
@@ -561,8 +576,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>64.635800000000003</v>
@@ -590,38 +605,6 @@
       </c>
       <c r="J5">
         <v>7.1967129432053557E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>7.9755E-3</v>
-      </c>
-      <c r="C6">
-        <v>7.9755E-3</v>
-      </c>
-      <c r="D6">
-        <v>7.9755999999999994E-3</v>
-      </c>
-      <c r="E6">
-        <v>7.9669000000000007E-3</v>
-      </c>
-      <c r="F6">
-        <v>7.9669000000000007E-3</v>
-      </c>
-      <c r="G6">
-        <v>7.9669000000000007E-3</v>
-      </c>
-      <c r="H6">
-        <v>1.079466291782153E-3</v>
-      </c>
-      <c r="I6">
-        <v>1.079466291782153E-3</v>
-      </c>
-      <c r="J6">
-        <v>1.0920182254074531E-3</v>
       </c>
     </row>
   </sheetData>
